--- a/biology/Microbiologie/Treponema/Treponema.xlsx
+++ b/biology/Microbiologie/Treponema/Treponema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tréponèmes (Treponema) sont un genre de bactéries hélicoïdales et motiles appartenant à la famille des Spirochaetaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bactérie de 5 à 15 µm de long sur 0,1 à 0,2 µm de large, spiralées. 
 La paroi est de type Gram négatif. 
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des bactéries commensales chez l’Homme et l'animal. 
 Quand elles sont commensales, elles vivent sur les muqueuses, dans les mucus, au niveau de la bouche, du tractus intestinal et de l’appareil urogénital. 
@@ -577,7 +593,9 @@
           <t>Pathogénicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Certaines espèces sont pathogènes pour l’homme, provoquant des maladies dites « tréponématoses ». C'est le cas de :
 Treponema pallidum subsp pallidum est l'agent de la syphilis vénérienne, qui est une infection sexuellement transmissible.
@@ -586,7 +604,7 @@
 Treponema carateum est l'agent de la pinta ou mal del pinto en Amérique centrale et du sud, maladie caractérisée par des lésions cutanées.
 Treponema vincentii, Treponema denticola sont non pathogènes et sont représentés dans la flore humaine normale.
 Treponema paraluiscuniculi est pathogène chez les lapins domestiques et les lapins sauvages.
-Treponema denticola Autrefois classé anaérobie obligatoire, il s'est avéré être anaérobie facultatif. C'est un pathogène parodontal reconnu qui est capable (dont in vitro) de constituer et entretenir des micro-milieux anaérobies qui lui sont favorables ainsi qu'à d'autres pathogènes de la bouche[1]. Dans la zone subgingivale saine, il ne constitue qu'une faible part des bactéries totales, mais dans les poches parodontales malades, il trouve un habitat idéal dans lequel il prospère et peut alors dominer la population bactérienne[2]. La base moléculaire de ses réponses adaptatives commence à être étudiées et définies avec plusieurs séquences génomiques décrites en 2008[2].C'est une bactérie qui fait aussi l'objet de manipulations génétiques (2012)[3].</t>
+Treponema denticola Autrefois classé anaérobie obligatoire, il s'est avéré être anaérobie facultatif. C'est un pathogène parodontal reconnu qui est capable (dont in vitro) de constituer et entretenir des micro-milieux anaérobies qui lui sont favorables ainsi qu'à d'autres pathogènes de la bouche. Dans la zone subgingivale saine, il ne constitue qu'une faible part des bactéries totales, mais dans les poches parodontales malades, il trouve un habitat idéal dans lequel il prospère et peut alors dominer la population bactérienne. La base moléculaire de ses réponses adaptatives commence à être étudiées et définies avec plusieurs séquences génomiques décrites en 2008.C'est une bactérie qui fait aussi l'objet de manipulations génétiques (2012).</t>
         </is>
       </c>
     </row>
@@ -614,9 +632,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon LPSN  (3 octobre 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (3 octobre 2023) :
 Treponema amylovorum Wyss et al. 1997
 Treponema azotonutricium Graber et al. 2004
 Treponema berlinense Nordhoff et al. 2005
@@ -673,17 +693,88 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Treponema Schaudinn 1905[4].
-L'espèce type est : Treponema pallidum (Schaudinn &amp; Hoffmann 1905) Schaudinn 1905[4].
-Synonymie
-Treponema a pour synonymes[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Treponema Schaudinn 1905.
+L'espèce type est : Treponema pallidum (Schaudinn &amp; Hoffmann 1905) Schaudinn 1905.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Treponema</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Treponema</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Treponema a pour synonymes :
 Helmutkoenigia Brune et al. 2022
 Leadbettera Brune et al. 2022
-Zuelzera Brune et al. 2022
-Étymologie
-L'étymologie de ce genre est la suivante : Gr. ind. v. trepô, tourner; Gr. neut. n. nêma, un fil; N.L. neut. n. Treponema, un fil tournoyant[4].
+Zuelzera Brune et al. 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Treponema</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Treponema</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de ce genre est la suivante : Gr. ind. v. trepô, tourner; Gr. neut. n. nêma, un fil; N.L. neut. n. Treponema, un fil tournoyant.
 </t>
         </is>
       </c>
